--- a/biology/Zoologie/Enoplognatha_ovata/Enoplognatha_ovata.xlsx
+++ b/biology/Zoologie/Enoplognatha_ovata/Enoplognatha_ovata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enoplognatha ovata est une espèce d'araignées aranéomorphes de la famille des Theridiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enoplognatha ovata est une espèce d'araignées aranéomorphes de la famille des Theridiidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Europe, en Russie, en Turquie, en Iran, au Kazakhstan, en Asie centrale, en Corée du Sud et au Japon[1].
-Elle a été introduite en Amérique du Nord[1], présente au Québec et découverte au sommet de jeunes plants de pommier d'où elle enroule les feuilles pour chasser à l'affût.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Europe, en Russie, en Turquie, en Iran, au Kazakhstan, en Asie centrale, en Corée du Sud et au Japon.
+Elle a été introduite en Amérique du Nord, présente au Québec et découverte au sommet de jeunes plants de pommier d'où elle enroule les feuilles pour chasser à l'affût.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 3,5 à 5,2 mm et les femelles de 4,3 à 6,8 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 3,5 à 5,2 mm et les femelles de 4,3 à 6,8 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Araneus ovatus par Clerck en 1757. Elle est placée dans le genre Theridion par Walckenaer en 1805[3] puis dans le genre Enoplognatha par Levi en 1957[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Araneus ovatus par Clerck en 1757. Elle est placée dans le genre Theridion par Walckenaer en 1805 puis dans le genre Enoplognatha par Levi en 1957.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Clerck, 1757 : Svenska spindlar, uti sina hufvud-slågter indelte samt under några och sextio särskildte arter beskrefne och med illuminerade figurer uplyste. Stockholmiae, p. 1-154 (sv).</t>
         </is>
